--- a/individual_case_outputs/avey/260.xlsx
+++ b/individual_case_outputs/avey/260.xlsx
@@ -750,7 +750,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>viral gastroenteritis</t>
+          <t>antibiotic associated diarrhoea</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>viral gastroenteritis</t>
+          <t>acute bacterial gastroenteritis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -832,14 +832,10 @@
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>rotavirus infection</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>antibiotic associated diarrhoea</t>
+          <t>giardiasis</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -896,7 +892,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>giardiasis</t>
+          <t>food poisoning</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -934,7 +930,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>viral gastroenteritis</t>
+          <t>parasitic gastroenteritis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -953,7 +949,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>food poisoning</t>
+          <t>influenza</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -992,11 +988,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>influenza</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>antibiotic associated diarrhea</t>
